--- a/Working Structure.xlsx
+++ b/Working Structure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jinda\OneDrive\Desktop\Taste of Everything\Taste-of-Everything-BackEnd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94546171-11C8-4115-AC90-4F7D0A581688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D825E335-86A7-4DAB-BBE7-F46B1E2C1A41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CEB08DBD-D5A1-4BE3-A432-1BA7CE6C7445}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="118">
   <si>
     <t xml:space="preserve">           Taste Of EveryThing Table Structure</t>
   </si>
@@ -520,6 +520,75 @@
   </si>
   <si>
     <t>Customer getCustomer(@RequestBody Customer customer)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7. Functionality</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Address)</t>
+    </r>
+  </si>
+  <si>
+    <t>Controller Name : addressController</t>
+  </si>
+  <si>
+    <t>Service Name : addressService</t>
+  </si>
+  <si>
+    <t>Service Implimentation: adressServiceImpl</t>
+  </si>
+  <si>
+    <t>Repository Name: adressRepository</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>PostMapping("/address")</t>
+  </si>
+  <si>
+    <t>PutMapping("/address")</t>
+  </si>
+  <si>
+    <t>Address addAddress(@RequestBody Address address)</t>
+  </si>
+  <si>
+    <t>Address updateAddress(@RequestBody Address address)</t>
+  </si>
+  <si>
+    <t>GetMapping("/address/{cust_id}")</t>
+  </si>
+  <si>
+    <t>List&lt;Address&gt; getAllAddress()</t>
+  </si>
+  <si>
+    <t>DeleteMapping("/address/{address_id}")</t>
+  </si>
+  <si>
+    <t>GetMapping("/address/{address_id}")</t>
+  </si>
+  <si>
+    <t>List&lt;Address&gt; getAddressById(@PathVariable int address_id)</t>
+  </si>
+  <si>
+    <t>void deleteAddress(@PathVariable int address_id)</t>
   </si>
 </sst>
 </file>
@@ -937,10 +1006,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13AC9244-548B-48A7-9564-EAA986B14A36}">
-  <dimension ref="A2:F20"/>
+  <dimension ref="A2:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -950,15 +1019,17 @@
     <col min="4" max="4" width="52.5546875" customWidth="1"/>
     <col min="5" max="5" width="61.44140625" customWidth="1"/>
     <col min="6" max="6" width="65.21875" customWidth="1"/>
-    <col min="7" max="7" width="46.77734375" customWidth="1"/>
+    <col min="7" max="7" width="56.109375" customWidth="1"/>
+    <col min="8" max="8" width="35.5546875" customWidth="1"/>
+    <col min="9" max="9" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>27</v>
       </c>
@@ -977,8 +1048,11 @@
       <c r="F3" s="3" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -997,8 +1071,11 @@
       <c r="F4" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -1017,8 +1094,11 @@
       <c r="F5" s="2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -1037,8 +1117,11 @@
       <c r="F6" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -1057,8 +1140,11 @@
       <c r="F7" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -1077,8 +1163,11 @@
       <c r="F8" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
@@ -1097,8 +1186,11 @@
       <c r="F9" s="4" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
@@ -1117,8 +1209,11 @@
       <c r="F10" s="5" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>8</v>
       </c>
@@ -1137,8 +1232,11 @@
       <c r="F11" s="4" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>20</v>
       </c>
@@ -1157,8 +1255,11 @@
       <c r="F12" s="5" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>9</v>
       </c>
@@ -1177,8 +1278,11 @@
       <c r="F13" s="4" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G13" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>10</v>
       </c>
@@ -1197,8 +1301,11 @@
       <c r="F14" s="5" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G14" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>13</v>
       </c>
@@ -1217,8 +1324,11 @@
       <c r="F15" s="4" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G15" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>95</v>
       </c>
@@ -1237,8 +1347,11 @@
       <c r="F16" s="5" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>100</v>
       </c>
@@ -1257,8 +1370,11 @@
       <c r="F17" s="4" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>101</v>
       </c>
@@ -1277,8 +1393,11 @@
       <c r="F18" s="5" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
@@ -1289,8 +1408,9 @@
       <c r="F19" s="4" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>12</v>
       </c>
@@ -1301,6 +1421,7 @@
       <c r="F20" s="5" t="s">
         <v>99</v>
       </c>
+      <c r="G20" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Working Structure.xlsx
+++ b/Working Structure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jinda\OneDrive\Desktop\Taste of Everything\Taste-of-Everything-BackEnd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D825E335-86A7-4DAB-BBE7-F46B1E2C1A41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDC3E542-5848-4134-9E82-543B24CAA81E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CEB08DBD-D5A1-4BE3-A432-1BA7CE6C7445}"/>
   </bookViews>
@@ -60,15 +60,6 @@
     <t>List&lt;Customer&gt; getAllCustomers()</t>
   </si>
   <si>
-    <t>DeleteMapping("/customer/{cust_id}")</t>
-  </si>
-  <si>
-    <t>void deleteCustomer(@PathVariable int cust_id)</t>
-  </si>
-  <si>
-    <t>GetMapping("/customer/{cust_id}")</t>
-  </si>
-  <si>
     <t>Customer addCustomer(@RequestBody Customer customer)</t>
   </si>
   <si>
@@ -90,22 +81,10 @@
     <t>Customer updateCustomer(@RequestBody Customer customer)</t>
   </si>
   <si>
-    <t>DeleteMapping("/category/{cat_id}")</t>
-  </si>
-  <si>
     <t>Category updateCategory(@RequestBody Category category)</t>
   </si>
   <si>
     <t>Category addCategory(@RequestBody Category category)</t>
-  </si>
-  <si>
-    <t>void deleteCategory(@PathVariable int cat_id)</t>
-  </si>
-  <si>
-    <t>GetMapping("/category/{cat_name}")</t>
-  </si>
-  <si>
-    <t>List&lt;Category&gt; getCategoryByName(@PathVariable String cat_name )</t>
   </si>
   <si>
     <r>
@@ -231,28 +210,10 @@
     <t>Item updateItem(@RequestBody Item item)</t>
   </si>
   <si>
-    <t>GetMapping("/categorys")</t>
-  </si>
-  <si>
     <t>GetMapping("/items")</t>
   </si>
   <si>
-    <t>List&lt;Category&gt; getAllCategorys()</t>
-  </si>
-  <si>
     <t>List&lt;Item&gt; getAllItems()</t>
-  </si>
-  <si>
-    <t>DeleteMapping("/item/{item_id}")</t>
-  </si>
-  <si>
-    <t>void deleteItem(@PathVariable int item_id)</t>
-  </si>
-  <si>
-    <t>GetMapping("/item/{item_name}")</t>
-  </si>
-  <si>
-    <t>List&lt;Item&gt; getItemByName(@PathVariable String item_name )</t>
   </si>
   <si>
     <t>Controller Name : cartController</t>
@@ -315,31 +276,10 @@
     <t>Cart</t>
   </si>
   <si>
-    <t>PostMapping("/cart")</t>
-  </si>
-  <si>
-    <t>PutMapping("/cart")</t>
-  </si>
-  <si>
     <t>Cart addCart(@RequestBody Cart cart)</t>
   </si>
   <si>
     <t>Cart updateCart(@RequestBody Cart cart)</t>
-  </si>
-  <si>
-    <t>GetMapping("/cart/{cust_id}")</t>
-  </si>
-  <si>
-    <t>List&lt;Cart&gt; getAllItemsInCart(@PathVariable int cust_id)</t>
-  </si>
-  <si>
-    <t>DeleteMapping("/cart/{item_id}")</t>
-  </si>
-  <si>
-    <t>DeleteMapping("/cart/{cust_id}")</t>
-  </si>
-  <si>
-    <t>void deleteCartValue(@PathVariable int cust_id)</t>
   </si>
   <si>
     <r>
@@ -402,36 +342,6 @@
     <t>Order</t>
   </si>
   <si>
-    <t>PostMapping("/order")</t>
-  </si>
-  <si>
-    <t>PutMapping("/order")</t>
-  </si>
-  <si>
-    <t>GetMapping("/orders")</t>
-  </si>
-  <si>
-    <t>Item addOrder(@RequestBody Order order)</t>
-  </si>
-  <si>
-    <t>Item updateOrder(@RequestBody Order order)</t>
-  </si>
-  <si>
-    <t>List&lt;Item&gt; getAllOrders()</t>
-  </si>
-  <si>
-    <t>GetMapping("/order/{cust_id}")</t>
-  </si>
-  <si>
-    <t>List&lt;Item&gt; getOrderByCustomerId(@PathVariable int cust_id )</t>
-  </si>
-  <si>
-    <t>GetMapping("/order/{order_status}")</t>
-  </si>
-  <si>
-    <t>List&lt;Item&gt; getOrderByStatus(@PathVariable String order_status)</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -489,27 +399,6 @@
     <t>List&lt;Employee&gt; getAllEmployees()</t>
   </si>
   <si>
-    <t>DeleteMapping("/employee/{emp_id}")</t>
-  </si>
-  <si>
-    <t>void deleteEmployee(@PathVariable int emp_id)</t>
-  </si>
-  <si>
-    <t>List&lt;Employee&gt; getEmployeeById(@PathVariable int emp_id)</t>
-  </si>
-  <si>
-    <t>GetMapping("/employee/{emp_id}")</t>
-  </si>
-  <si>
-    <t>Customer getCustomerById(@PathVariable int cust_id )</t>
-  </si>
-  <si>
-    <t>GetMapping("/item/{cat_id}}")</t>
-  </si>
-  <si>
-    <t>List&lt;Item&gt; getItemByCategoryId(@PathVariable int cat_id )</t>
-  </si>
-  <si>
     <t>GetMapping("/employee")</t>
   </si>
   <si>
@@ -573,22 +462,133 @@
     <t>Address updateAddress(@RequestBody Address address)</t>
   </si>
   <si>
-    <t>GetMapping("/address/{cust_id}")</t>
-  </si>
-  <si>
     <t>List&lt;Address&gt; getAllAddress()</t>
   </si>
   <si>
-    <t>DeleteMapping("/address/{address_id}")</t>
-  </si>
-  <si>
-    <t>GetMapping("/address/{address_id}")</t>
-  </si>
-  <si>
-    <t>List&lt;Address&gt; getAddressById(@PathVariable int address_id)</t>
-  </si>
-  <si>
-    <t>void deleteAddress(@PathVariable int address_id)</t>
+    <t>Order addOrder(@RequestBody Order order)</t>
+  </si>
+  <si>
+    <t>Order updateOrder(@RequestBody Order order)</t>
+  </si>
+  <si>
+    <t>List&lt;Order&gt; getAllOrders()</t>
+  </si>
+  <si>
+    <t>PostMapping("customer/cart")</t>
+  </si>
+  <si>
+    <t>PutMapping("customer/cart")</t>
+  </si>
+  <si>
+    <t>PostMapping("customer/order")</t>
+  </si>
+  <si>
+    <t>PutMapping("customer/order")</t>
+  </si>
+  <si>
+    <t>GetMapping("customer/orders")</t>
+  </si>
+  <si>
+    <t>GetMapping("/category/categoryName/{categoryName}")</t>
+  </si>
+  <si>
+    <t>DeleteMapping("/category/{categoryId}")</t>
+  </si>
+  <si>
+    <t>void deleteCategory(@PathVariable int categoryId)</t>
+  </si>
+  <si>
+    <t>List&lt;Category&gt; getCategoryByName(@PathVariable String categoryName )</t>
+  </si>
+  <si>
+    <t>Customer getCustomerById(@PathVariable int customerId )</t>
+  </si>
+  <si>
+    <t>GetMapping("/customer/{customerId}")</t>
+  </si>
+  <si>
+    <t>DeleteMapping("/customer/{customerId}")</t>
+  </si>
+  <si>
+    <t>void deleteCustomer(@PathVariable int customerId)</t>
+  </si>
+  <si>
+    <t>List&lt;Category&gt; getAllCategories()</t>
+  </si>
+  <si>
+    <t>GetMapping("/categories")</t>
+  </si>
+  <si>
+    <t>List&lt;Item&gt; getItemByName(@PathVariable String itemName )</t>
+  </si>
+  <si>
+    <t>GetMapping("/item/itemName/{itemName}")</t>
+  </si>
+  <si>
+    <t>GetMapping("/item/{categoryId}}")</t>
+  </si>
+  <si>
+    <t>List&lt;Item&gt; getItemByCategoryId(@PathVariable int categoryId)</t>
+  </si>
+  <si>
+    <t>void deleteItem(@PathVariable int itemId)</t>
+  </si>
+  <si>
+    <t>DeleteMapping("/item/{itemId}")</t>
+  </si>
+  <si>
+    <t>GetMapping("customer/cart/{customerId}")</t>
+  </si>
+  <si>
+    <t>List&lt;Cart&gt; getAllItemsInCart(@PathVariable int customerId)</t>
+  </si>
+  <si>
+    <t>DeleteMapping("customer/cart/{customerId}")</t>
+  </si>
+  <si>
+    <t>void deleteCartValue(@PathVariable int customerId)</t>
+  </si>
+  <si>
+    <t>DeleteMapping("customer/cart/{itemId}")</t>
+  </si>
+  <si>
+    <t>List&lt;Order&gt; getOrderByStatus(@PathVariable String orderStatus)</t>
+  </si>
+  <si>
+    <t>GetMapping("customer/order/orderStatus/{orderStatus}")</t>
+  </si>
+  <si>
+    <t>List&lt;Order&gt; getOrderByCustomerId(@PathVariable int customerId )</t>
+  </si>
+  <si>
+    <t>GetMapping("customer/order/{customerId}")</t>
+  </si>
+  <si>
+    <t>List&lt;Employee&gt; getEmployeeById(@PathVariable int employeeId)</t>
+  </si>
+  <si>
+    <t>void deleteEmployee(@PathVariable intemployeeId)</t>
+  </si>
+  <si>
+    <t>DeleteMapping("/employee/{employeeId}")</t>
+  </si>
+  <si>
+    <t>GetMapping("/employee/{employeeId}")</t>
+  </si>
+  <si>
+    <t>List&lt;Address&gt; getAddressById(@PathVariable int addressId)</t>
+  </si>
+  <si>
+    <t>GetMapping("/address/{addressId}")</t>
+  </si>
+  <si>
+    <t>DeleteMapping("/address/{addressId}")</t>
+  </si>
+  <si>
+    <t>void deleteAddress(@PathVariable int addressId)</t>
+  </si>
+  <si>
+    <t>GetMapping("/address/{customerId}")</t>
   </si>
 </sst>
 </file>
@@ -1008,8 +1008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13AC9244-548B-48A7-9564-EAA986B14A36}">
   <dimension ref="A2:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1031,25 +1031,25 @@
     </row>
     <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>102</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -1057,22 +1057,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>103</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -1080,22 +1080,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>104</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -1103,22 +1103,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>105</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -1126,22 +1126,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>106</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -1152,19 +1152,19 @@
         <v>2</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="F8" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="G8" t="s">
-        <v>107</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -1172,45 +1172,45 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>108</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>110</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -1218,45 +1218,45 @@
         <v>8</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>109</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D12" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>87</v>
-      </c>
       <c r="G12" s="5" t="s">
-        <v>111</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -1264,22 +1264,22 @@
         <v>9</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -1287,139 +1287,139 @@
         <v>10</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>47</v>
+        <v>94</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>96</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>97</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="D19" s="4"/>
       <c r="F19" s="4" t="s">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="D20" s="5"/>
       <c r="F20" s="5" t="s">
-        <v>99</v>
+        <v>62</v>
       </c>
       <c r="G20" s="5"/>
     </row>
